--- a/assets/planos/PA - EVM - Plano de Ação 2023.xlsx
+++ b/assets/planos/PA - EVM - Plano de Ação 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\Desktop\DSUSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC115FE-A0B0-4BD9-B6D7-2F562E645429}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B5A8DE-AD52-4E9F-9F6A-A46B0CD8EC56}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="573" xr2:uid="{317DE164-AE1E-402C-AB8E-CAABBD5F8C60}"/>
   </bookViews>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="619">
   <si>
     <t>PLANO DE AÇÃO</t>
   </si>
@@ -435,51 +435,29 @@
     <t>Diagnóstico (limitado a 1000 caracteres)</t>
   </si>
   <si>
+    <t>Uma pesquisa realizada pelo Fórum Brasileiro de Segurança Pública revela o aumento nos índices de todas as formas de violência contra a mulher em 2022, com cerca de 18,6 milhões de brasileiras foram vitimizadas neste ano. Os agentes de segurança pública desempenham um papel crucial necessário, o que evidencia a importância de capacitá-los para garantir uma assistência de qualidade e integrada. Desde o ano de 2021, a SEGUP/PA realiza cursos de capacitação a servidores da segurança Pública a mulheres vítimas de violência. Através da utilização de dados levantados pelo Portal da Transparência da Secretaria de Segurança Pública do Estado do Pará, atraves do Dashboard Portal da Transparência da Segurança Pública | SEGUP-PA &gt; Dashboard,ENDEREÇOhttp://sistemas.segup.pa.gov.br/transparencia/dashboard/ nos últimos 5 anos, foi possível verificar uma sensível diminuição na taxa de Violência contra a Mulher em todo o Estado, porém esta modalidade criminosa ainda apresenta elevados indíces que o Estado visa reduzir, conforme metas específicas de seu Plano Estadual de Segurança Pública. De 2019 até o presente mês de setembro 2023 foram registrados duzentos e quarenta e sete (247) feminicídios, dezoito mil quatrocentos e oitenta e oito crimes sexuais(18.488), nos quais em 85% dos casos as vitimas eram do sexo feminino. Nos últimos dois (02) anos foram praticadas trinta e seis mil setecentas e vinte cinco (36.725) lesões corporais dos quais 57% as vítimas são mulheres sendo que os municípios com maiores indices são os da Região Metropolitana de Capital composta pelos municipios de Belém, Ananindeua, Marituba, Benevides e Santa Bárbara, incluindo suas ilhas e furos, que totalizam um milhão novecentos e oitenta mil oitocentos e ciquenta e quatro habitantes.</t>
+  </si>
+  <si>
+    <t>Justificativa (limitada a 1000 caracteres)</t>
+  </si>
+  <si>
+    <t>Em razão do diagnótico apresetnado, associado aos indicadores, tem-se a necessidade de interveção de políticas públicas para redução dos números de casos de violência à mulher na região metropolitana da capital, visto à segurança ao indvíduo ser um direito fundamental previsto na constituição federal.</t>
+  </si>
+  <si>
+    <t>Meta Geral (limitado a 200 caraceteres)</t>
+  </si>
+  <si>
+    <t>Reduzir o indice de casos de violência contra a mulher nos municípios de Belém, Ananindeua , Marituba, Benevides  e Santa bárbara,  incluindo suas ilhas e furos,  que compõem a região metropolitana da capital, em 5% ate 2025.</t>
+  </si>
+  <si>
+    <t>Estratégia de Implementação (limitada a 1000 caracteres)</t>
+  </si>
+  <si>
+    <t>Estratégia:</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Uma pesquisa realizada pelo Fórum Brasileiro de Segurança Pública revela o aumento nos índices de todas as formas de violência contra a mulher em 2022, com cerca de 18,6 milhões de brasileiras foram vitimizadas neste ano. Os agentes de segurança pública desempenham um papel crucial necessário, o que evidencia a importância de capacitá-los para garantir uma assistência de qualidade e integrada. Desde o ano de 2021, a SEGUP/PA realiza cursos de capacitação a servidores da segurança Pública  a mulheres vítimas de violência. Através da utilização de dados levantados pelo Portal da Transparência da Secretaria de Segurança Pública do Estado do Pará, atraves do Dashboard </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Portal da Transparência da Segurança Pública | SEGUP-PA &gt; Dashboard,ENDEREÇOhttp://sistemas.segup.pa.gov.br/transparencia/dashboard/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> nos últimos 5 anos, foi possível verificar uma sensível diminuição  na taxa de Violência contra a Mulher em todo o Estado, porém esta modalidade criminosa ainda apresenta  elevados indíces que o Estado visa reduzir, conforme metas específicas de seu Plano Estadual de Segurança Pública. De 2019 até o presente mês de setembro 2023 foram registrados duzentos e quarenta e sete (247) feminicídios, dezoito mil quatrocentos e oitenta e oito crimes sexuais(18.488), nos quais em 85% dos casos as vitimas eram do sexo feminino. Nos últimos dois (02) anos foram praticadas trinta e seis mil setecentas e vinte cinco (36.725) lesões corporais dos quais 57% as vítimas são mulheres sendo que os municípios com maiores indices são os da Região Metropolitana de Capital composta pelos municipios de Belém, Ananindeua, Marituba, Benevides e Santa Bárbara,  incluindo suas ilhas e furos, que totalizam um milhão novecentos e oitenta mil oitocentos e ciquenta e quatro habitantes.</t>
-    </r>
-  </si>
-  <si>
-    <t>Justificativa (limitada a 1000 caracteres)</t>
-  </si>
-  <si>
-    <t>Em razão do diagnótico apresetnado, associado aos indicadores, tem-se a necessidade de interveção de políticas públicas para redução dos números de casos de violência à mulher na região metropolitana da capital, visto à segurança ao indvíduo ser um direito fundamental previsto na constituição federal.</t>
-  </si>
-  <si>
-    <t>Meta Geral (limitado a 200 caraceteres)</t>
-  </si>
-  <si>
-    <t>Reduzir o indice de casos de violência contra a mulher nos municípios de Belém, Ananindeua , Marituba, Benevides  e Santa bárbara,  incluindo suas ilhas e furos,  que compõem a região metropolitana da capital, em 5% ate 2025, alimhada ao estimado no Plano Estadual de Segurnça Pública.</t>
-  </si>
-  <si>
-    <t>Estratégia de Implementação (limitada a 1000 caracteres)</t>
-  </si>
-  <si>
-    <t>Estratégia:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Para alcançar as Meta Geral estipulada serão implementadas 2 metas específicas da seguinte forma:  </t>
+      <t xml:space="preserve">Para alcançar as Meta Geral estipulada serão implementadas 2 metas específicas da seguinte forma: </t>
     </r>
     <r>
       <rPr>
@@ -508,7 +486,7 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ções  1, 2, 3 e 4  </t>
+      <t xml:space="preserve">ções 1, 2, 3 e 4 </t>
     </r>
     <r>
       <rPr>
@@ -517,7 +495,7 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>voltadas para a Realização de cursos livres e seminários para  capacitação dos servidores da segurança pública, voltados ao atendimento do dos crimes de violência contra a mulher.</t>
+      <t>voltadas para a Realização de cursos livres e seminários para capacitação dos servidores da segurança pública, voltados ao atendimento do dos crimes de violência contra a mulher.</t>
     </r>
     <r>
       <rPr>
@@ -555,7 +533,7 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> aquisição de Lanchas adequadas e caracterizadas com carretilha tipo reboque para o enfrentamento da violência contra a mulher nas áreas ribeirinhas dos municípios Belém, Ananindeua , Marituba, Benevides  e Santa bárbara. </t>
+      <t xml:space="preserve"> aquisição de Lanchas adequadas e caracterizadas com carretilha tipo reboque para o enfrentamento da violência contra a mulher nas áreas ribeirinhas dos municípios Belém, Ananindeua , Marituba, Benevides e Santa bárbara.</t>
     </r>
   </si>
   <si>
@@ -580,47 +558,7 @@
     <t>IV - aquisição de bens e equipamentos e/ou contratação de serviços:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Conforme a necessidade observada de potencializar as ações de capacitação de servidores a fim de aumentar o</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> quantitativo de servidores capacitados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> e de municípios atendidos, para que seja implementada a meta geral proposta, serão realizadas contratacões de empresas especializadas para a oferta de cursos livres e seminários. Tambem Com o escopo de </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>mitigar o déficit de embarcações voltadas ao atendimento as mulheres em situação de vulnerabilidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, aumentando dessa maneira a  capacidade de prestação dos serviços e  implementação da Meta Geral estabelecida, que trata da aquisição embarcação policiais que serão utilizadas de maneira exclusiva no enfrentamento a ocorrências em atendimento as mulheres em situação de risco em áreas ribeirinhas.</t>
-    </r>
+    <t>Com objetivo de mitigar o défict de equipamentos e aumentar a capacidade de prestação de serviços de acordo com a meta geral estabelecida serão adquiridos os equipamentos de acordo com a descrição dos objetos abaixo na tabela métrica de mesuração, como meio de intervenção conforme diagnóstico detalhado acima.</t>
   </si>
   <si>
     <t>Indicador geral de resultado (descrição e fórmula de cálculo)</t>
@@ -642,13 +580,13 @@
     <t>01</t>
   </si>
   <si>
-    <t>Ampliar a oferta de capacitação a agentes do SIEDS em 2% que atuam direta e indireramente na assistência a mulheres vítimas de violência doméstica e familiar nos municípios  Belém, Ananindeua , Marituba, Benevides  e Santa bárbara</t>
+    <t>Ampliar a capacitação a agentes do SIEDS em 2% que atuam direta e indireramente na assistência a mulheres vítimas de violência doméstica e familiar nos municípios  Belém, Ananindeua , Marituba, Benevides  e Santa bárbara até 2025.</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>Aumentar o patrullhamento  de ocorrências em 3% no enfrentamento da violência contra a mulher em especial nas áreas ribeirinhas dos Municípios Belém, Ananindeua , Marituba, Benevides  e Santa bárbara</t>
+    <t>Aumentar o patrullhamento em 3% no enfrentamento da violência contra a mulher em especial nas áreas ribeirinhas dos Municípios Belém, Ananindeua , Marituba, Benevides e Santa bárbara até 2025.</t>
   </si>
   <si>
     <t>03</t>
@@ -778,9 +716,6 @@
   </si>
   <si>
     <t>SER.11.048.0001</t>
-  </si>
-  <si>
-    <t>Proporção de MUNIC (quantitativo de municípios alcançados)</t>
   </si>
   <si>
     <t>[(n⁰ mun. alcançados ano atual + n⁰ mun. alcançados anos anteriores) x 100]÷144</t>
@@ -2384,7 +2319,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2545,14 +2480,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2588,13 +2515,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2759,7 +2679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2876,67 +2796,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2949,6 +2825,110 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2958,42 +2938,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3371,8 +3315,8 @@
   </sheetPr>
   <dimension ref="A1:Q1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24" customHeight="1"/>
@@ -3397,48 +3341,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="22">
         <v>2023</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="61.5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="2"/>
@@ -3459,134 +3403,134 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="30.75" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="8"/>
@@ -3607,134 +3551,134 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" ht="30.75" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="30.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" ht="30.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="30.75" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="7"/>
@@ -3755,520 +3699,520 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="141.75" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="1:16" ht="141.75" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="141.75" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
     </row>
     <row r="22" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
     </row>
     <row r="23" spans="1:16" ht="150.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="1:16" ht="18.75">
-      <c r="A24" s="43"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
     </row>
     <row r="25" spans="1:16" ht="142.5" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="43"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="27" spans="1:16" ht="109.5" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="69"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="43"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
     </row>
     <row r="29" spans="1:16" ht="116.25" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="66"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="60"/>
     </row>
     <row r="30" spans="1:16" ht="18.75">
-      <c r="A30" s="43"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" ht="104.25" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="66"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
     </row>
     <row r="32" spans="1:16" ht="153" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="61" t="s">
+      <c r="C33" s="66"/>
+      <c r="D33" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
     </row>
     <row r="34" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="61" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
     </row>
     <row r="35" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
     </row>
     <row r="36" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
     </row>
     <row r="37" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
     </row>
     <row r="38" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
     </row>
     <row r="39" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="39" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
     </row>
     <row r="41" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
     </row>
     <row r="42" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
     </row>
     <row r="43" spans="1:16" ht="2.25" customHeight="1">
       <c r="A43" s="7"/>
@@ -4415,56 +4359,56 @@
       <c r="P51" s="7"/>
     </row>
     <row r="52" spans="1:17" ht="36.75" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
     </row>
     <row r="53" spans="1:17" ht="36" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41" t="s">
+      <c r="C53" s="68"/>
+      <c r="D53" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41" t="s">
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41" t="s">
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="P53" s="41"/>
+      <c r="P53" s="68"/>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="66" customHeight="1">
-      <c r="A54" s="41"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
       </c>
@@ -4597,10 +4541,10 @@
         <v>579645.02</v>
       </c>
       <c r="L56" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="M56" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="N56" s="37" t="s">
         <v>82</v>
@@ -4620,22 +4564,22 @@
         <v>45</v>
       </c>
       <c r="C57" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="E57" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="F57" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>93</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>77</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I57" s="28">
         <v>2</v>
@@ -4647,10 +4591,10 @@
         <v>2789010.1</v>
       </c>
       <c r="L57" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" s="37" t="s">
         <v>95</v>
-      </c>
-      <c r="M57" s="37" t="s">
-        <v>96</v>
       </c>
       <c r="N57" s="37" t="s">
         <v>82</v>
@@ -4659,7 +4603,7 @@
         <v>83</v>
       </c>
       <c r="P57" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="80.25" customHeight="1">
@@ -21729,37 +21673,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2JGoNLOIwOg8qYKXAAXF5pCIYOZ/ii1ie8J//28fNTTF84UEUgQ1IsDmpwyE7bXvBJNvGEbq80cdM0/Af01YPw==" saltValue="r5Z1/dM24L+eGEQwhAwjyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:K53"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="D33:P33"/>
     <mergeCell ref="D34:P34"/>
@@ -21776,18 +21701,37 @@
     <mergeCell ref="D42:P42"/>
     <mergeCell ref="D37:P37"/>
     <mergeCell ref="D38:P38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 I43:K51 I1006:K1048576" xr:uid="{5D7C397E-12F3-449F-86FE-0120D5AA2AFD}">
@@ -21947,37 +21891,37 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>107</v>
-      </c>
-      <c r="N1" t="s">
-        <v>108</v>
       </c>
       <c r="P1" t="s">
         <v>66</v>
@@ -21986,7 +21930,7 @@
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
       <c r="A2" s="32"/>
       <c r="C2" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -21996,7 +21940,7 @@
         <v>01</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P2" t="s">
         <v>79</v>
@@ -22004,61 +21948,61 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="str">
         <f>IF(Plano!D34&lt;&gt;"",Plano!B34,"")</f>
         <v>02</v>
       </c>
       <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" t="s">
         <v>116</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>117</v>
-      </c>
-      <c r="P3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
         <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>123</v>
       </c>
       <c r="I4" t="str">
         <f>IF(Plano!D35&lt;&gt;"",Plano!B35,"")</f>
@@ -22068,49 +22012,49 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
         <v>124</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>125</v>
-      </c>
-      <c r="P4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>130</v>
-      </c>
-      <c r="H5" t="s">
-        <v>131</v>
       </c>
       <c r="I5" t="str">
         <f>IF(Plano!D36&lt;&gt;"",Plano!B36,"")</f>
         <v/>
       </c>
       <c r="J5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" t="s">
         <v>132</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>133</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -22121,1016 +22065,1016 @@
         <v>46</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>138</v>
-      </c>
-      <c r="H6" t="s">
-        <v>139</v>
       </c>
       <c r="I6" t="str">
         <f>IF(Plano!D37&lt;&gt;"",Plano!B37,"")</f>
         <v/>
       </c>
       <c r="L6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" t="s">
         <v>140</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>141</v>
-      </c>
-      <c r="P6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" t="str">
         <f>IF(Plano!D38&lt;&gt;"",Plano!B38,"")</f>
         <v/>
       </c>
       <c r="L7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
         <v>147</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
       </c>
       <c r="I8" t="str">
         <f>IF(Plano!D39&lt;&gt;"",Plano!B39,"")</f>
         <v/>
       </c>
       <c r="L8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" t="s">
         <v>154</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>155</v>
-      </c>
-      <c r="P8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>160</v>
       </c>
       <c r="I9" t="str">
         <f>IF(Plano!D40&lt;&gt;"",Plano!B40,"")</f>
         <v/>
       </c>
       <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" t="s">
         <v>161</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>162</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
         <v>165</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>166</v>
-      </c>
-      <c r="H10" t="s">
-        <v>167</v>
       </c>
       <c r="I10" t="str">
         <f>IF(Plano!D41&lt;&gt;"",Plano!B41,"")</f>
         <v/>
       </c>
       <c r="L10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" t="s">
         <v>168</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
         <v>172</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>173</v>
-      </c>
-      <c r="H11" t="s">
-        <v>174</v>
       </c>
       <c r="I11" t="str">
         <f>IF(Plano!D42&lt;&gt;"",Plano!B42,"")</f>
         <v/>
       </c>
       <c r="L11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" t="s">
         <v>175</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
         <v>179</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>180</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>181</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>182</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>183</v>
-      </c>
-      <c r="P12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" t="s">
         <v>187</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>189</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>190</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>191</v>
-      </c>
-      <c r="P13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" t="s">
         <v>195</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>196</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>197</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>198</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>199</v>
-      </c>
-      <c r="P14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" t="s">
         <v>203</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>204</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>205</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>206</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>207</v>
-      </c>
-      <c r="P15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" t="s">
         <v>210</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>211</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>212</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>213</v>
-      </c>
-      <c r="P16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" t="s">
         <v>216</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>217</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>218</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" t="s">
         <v>222</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>223</v>
       </c>
-      <c r="H18" t="s">
+      <c r="P18" t="s">
         <v>224</v>
-      </c>
-      <c r="P18" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" t="s">
         <v>227</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
         <v>228</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>229</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>230</v>
-      </c>
-      <c r="P19" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" t="s">
         <v>233</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>234</v>
       </c>
-      <c r="H20" t="s">
+      <c r="P20" t="s">
         <v>235</v>
-      </c>
-      <c r="P20" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>239</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>240</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>241</v>
-      </c>
-      <c r="P21" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="D22" t="s">
         <v>244</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>245</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>246</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>247</v>
-      </c>
-      <c r="P22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="C23" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" t="s">
         <v>249</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>250</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>251</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>252</v>
-      </c>
-      <c r="P23" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="C24" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>255</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>256</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>257</v>
-      </c>
-      <c r="P24" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="C25" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" t="s">
         <v>259</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>260</v>
-      </c>
-      <c r="H25" t="s">
-        <v>261</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="C26" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" t="s">
         <v>263</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>264</v>
       </c>
-      <c r="H26" t="s">
+      <c r="L26" t="s">
         <v>265</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>266</v>
-      </c>
-      <c r="P26" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="C27" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" t="s">
         <v>268</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>269</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="s">
         <v>270</v>
-      </c>
-      <c r="L27" t="s">
-        <v>90</v>
-      </c>
-      <c r="P27" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="C28" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" t="s">
         <v>272</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>273</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>274</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>275</v>
-      </c>
-      <c r="P28" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="C29" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" t="s">
         <v>277</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>278</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>279</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>280</v>
-      </c>
-      <c r="P29" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="D30" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" t="s">
         <v>282</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>283</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>284</v>
-      </c>
-      <c r="P30" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="D31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" t="s">
         <v>286</v>
       </c>
-      <c r="H31" t="s">
+      <c r="L31" t="s">
         <v>287</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>288</v>
-      </c>
-      <c r="P31" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" t="s">
         <v>290</v>
       </c>
-      <c r="H32" t="s">
+      <c r="P32" t="s">
         <v>291</v>
-      </c>
-      <c r="P32" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="33" spans="4:16">
       <c r="D33" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" t="s">
         <v>293</v>
       </c>
-      <c r="H33" t="s">
+      <c r="L33" t="s">
         <v>294</v>
       </c>
-      <c r="L33" t="s">
+      <c r="P33" t="s">
         <v>295</v>
-      </c>
-      <c r="P33" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="4:16">
       <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" t="s">
         <v>297</v>
       </c>
-      <c r="H34" t="s">
+      <c r="P34" t="s">
         <v>298</v>
-      </c>
-      <c r="P34" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="35" spans="4:16">
       <c r="D35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" t="s">
         <v>300</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>301</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>302</v>
-      </c>
-      <c r="P35" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="36" spans="4:16">
       <c r="D36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" t="s">
         <v>304</v>
       </c>
-      <c r="H36" t="s">
+      <c r="L36" t="s">
         <v>305</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>306</v>
-      </c>
-      <c r="P36" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="37" spans="4:16">
       <c r="D37" t="s">
+        <v>307</v>
+      </c>
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>309</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>310</v>
-      </c>
-      <c r="P37" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="38" spans="4:16">
       <c r="D38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H38" t="s">
         <v>312</v>
       </c>
-      <c r="H38" t="s">
+      <c r="L38" t="s">
         <v>313</v>
       </c>
-      <c r="L38" t="s">
+      <c r="P38" t="s">
         <v>314</v>
-      </c>
-      <c r="P38" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="39" spans="4:16">
       <c r="D39" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" t="s">
         <v>316</v>
       </c>
-      <c r="H39" t="s">
+      <c r="L39" t="s">
         <v>317</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>318</v>
-      </c>
-      <c r="P39" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="40" spans="4:16">
       <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" t="s">
         <v>320</v>
       </c>
-      <c r="H40" t="s">
+      <c r="L40" t="s">
         <v>321</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>322</v>
-      </c>
-      <c r="P40" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="41" spans="4:16">
       <c r="D41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" t="s">
         <v>324</v>
       </c>
-      <c r="H41" t="s">
+      <c r="L41" t="s">
         <v>325</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>326</v>
-      </c>
-      <c r="P41" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="42" spans="4:16">
       <c r="D42" t="s">
+        <v>327</v>
+      </c>
+      <c r="H42" t="s">
         <v>328</v>
       </c>
-      <c r="H42" t="s">
+      <c r="L42" t="s">
         <v>329</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>330</v>
-      </c>
-      <c r="P42" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="43" spans="4:16">
       <c r="D43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" t="s">
         <v>332</v>
       </c>
-      <c r="H43" t="s">
+      <c r="L43" t="s">
         <v>333</v>
       </c>
-      <c r="L43" t="s">
+      <c r="P43" t="s">
         <v>334</v>
-      </c>
-      <c r="P43" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="44" spans="4:16">
       <c r="D44" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" t="s">
         <v>336</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" t="s">
         <v>337</v>
       </c>
-      <c r="L44" t="s">
+      <c r="P44" t="s">
         <v>338</v>
-      </c>
-      <c r="P44" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="45" spans="4:16">
       <c r="D45" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" t="s">
         <v>340</v>
       </c>
-      <c r="H45" t="s">
+      <c r="L45" t="s">
         <v>341</v>
       </c>
-      <c r="L45" t="s">
+      <c r="P45" t="s">
         <v>342</v>
-      </c>
-      <c r="P45" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="46" spans="4:16">
       <c r="D46" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" t="s">
         <v>344</v>
       </c>
-      <c r="H46" t="s">
+      <c r="L46" t="s">
         <v>345</v>
       </c>
-      <c r="L46" t="s">
+      <c r="P46" t="s">
         <v>346</v>
-      </c>
-      <c r="P46" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="47" spans="4:16">
       <c r="D47" t="s">
+        <v>347</v>
+      </c>
+      <c r="H47" t="s">
         <v>348</v>
       </c>
-      <c r="H47" t="s">
+      <c r="P47" t="s">
         <v>349</v>
-      </c>
-      <c r="P47" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="48" spans="4:16">
       <c r="D48" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" t="s">
         <v>351</v>
       </c>
-      <c r="H48" t="s">
+      <c r="P48" t="s">
         <v>352</v>
-      </c>
-      <c r="P48" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="49" spans="4:16">
       <c r="D49" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" t="s">
         <v>354</v>
       </c>
-      <c r="H49" t="s">
+      <c r="P49" t="s">
         <v>355</v>
-      </c>
-      <c r="P49" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="50" spans="4:16">
       <c r="D50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" t="s">
         <v>357</v>
       </c>
-      <c r="H50" t="s">
+      <c r="P50" t="s">
         <v>358</v>
-      </c>
-      <c r="P50" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="51" spans="4:16">
       <c r="D51" t="s">
+        <v>359</v>
+      </c>
+      <c r="H51" t="s">
         <v>360</v>
       </c>
-      <c r="H51" t="s">
+      <c r="P51" t="s">
         <v>361</v>
-      </c>
-      <c r="P51" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="52" spans="4:16">
       <c r="D52" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="H52" t="s">
+      <c r="P52" t="s">
         <v>364</v>
-      </c>
-      <c r="P52" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="53" spans="4:16">
       <c r="D53" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" t="s">
         <v>366</v>
       </c>
-      <c r="H53" t="s">
+      <c r="P53" t="s">
         <v>367</v>
-      </c>
-      <c r="P53" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="54" spans="4:16">
       <c r="D54" t="s">
+        <v>368</v>
+      </c>
+      <c r="H54" t="s">
         <v>369</v>
-      </c>
-      <c r="H54" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="55" spans="4:16">
       <c r="D55" t="s">
+        <v>370</v>
+      </c>
+      <c r="H55" t="s">
         <v>371</v>
-      </c>
-      <c r="H55" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="56" spans="4:16">
       <c r="D56" t="s">
+        <v>372</v>
+      </c>
+      <c r="H56" t="s">
         <v>373</v>
-      </c>
-      <c r="H56" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="57" spans="4:16">
       <c r="D57" t="s">
+        <v>374</v>
+      </c>
+      <c r="H57" t="s">
         <v>375</v>
-      </c>
-      <c r="H57" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="58" spans="4:16">
       <c r="D58" t="s">
+        <v>376</v>
+      </c>
+      <c r="H58" t="s">
         <v>377</v>
-      </c>
-      <c r="H58" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="59" spans="4:16">
       <c r="D59" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" t="s">
         <v>379</v>
-      </c>
-      <c r="H59" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="60" spans="4:16">
       <c r="D60" t="s">
+        <v>380</v>
+      </c>
+      <c r="H60" t="s">
         <v>381</v>
-      </c>
-      <c r="H60" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="61" spans="4:16">
       <c r="D61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="4:16">
       <c r="D62" t="s">
+        <v>383</v>
+      </c>
+      <c r="H62" t="s">
         <v>384</v>
-      </c>
-      <c r="H62" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="63" spans="4:16">
       <c r="D63" t="s">
+        <v>385</v>
+      </c>
+      <c r="H63" t="s">
         <v>386</v>
-      </c>
-      <c r="H63" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="64" spans="4:16">
       <c r="D64" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64" t="s">
         <v>388</v>
-      </c>
-      <c r="H64" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="65" spans="4:8">
       <c r="D65" t="s">
+        <v>389</v>
+      </c>
+      <c r="H65" t="s">
         <v>390</v>
-      </c>
-      <c r="H65" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="66" spans="4:8">
       <c r="D66" t="s">
+        <v>391</v>
+      </c>
+      <c r="H66" t="s">
         <v>392</v>
-      </c>
-      <c r="H66" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="67" spans="4:8">
       <c r="D67" t="s">
+        <v>393</v>
+      </c>
+      <c r="H67" t="s">
         <v>394</v>
-      </c>
-      <c r="H67" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="68" spans="4:8">
       <c r="D68" t="s">
+        <v>395</v>
+      </c>
+      <c r="H68" t="s">
         <v>396</v>
-      </c>
-      <c r="H68" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="69" spans="4:8">
       <c r="D69" t="s">
+        <v>397</v>
+      </c>
+      <c r="H69" t="s">
         <v>398</v>
-      </c>
-      <c r="H69" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="70" spans="4:8">
       <c r="D70" t="s">
+        <v>399</v>
+      </c>
+      <c r="H70" t="s">
         <v>400</v>
-      </c>
-      <c r="H70" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="71" spans="4:8">
       <c r="D71" t="s">
+        <v>401</v>
+      </c>
+      <c r="H71" t="s">
         <v>402</v>
-      </c>
-      <c r="H71" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="72" spans="4:8">
       <c r="D72" t="s">
+        <v>403</v>
+      </c>
+      <c r="H72" t="s">
         <v>404</v>
-      </c>
-      <c r="H72" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="73" spans="4:8">
       <c r="D73" t="s">
+        <v>405</v>
+      </c>
+      <c r="H73" t="s">
         <v>406</v>
-      </c>
-      <c r="H73" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="74" spans="4:8">
       <c r="D74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H74" t="s">
         <v>74</v>
@@ -23138,322 +23082,322 @@
     </row>
     <row r="75" spans="4:8">
       <c r="D75" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" t="s">
         <v>409</v>
-      </c>
-      <c r="H75" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="76" spans="4:8">
       <c r="D76" t="s">
+        <v>410</v>
+      </c>
+      <c r="H76" t="s">
         <v>411</v>
-      </c>
-      <c r="H76" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="77" spans="4:8">
       <c r="D77" t="s">
+        <v>412</v>
+      </c>
+      <c r="H77" t="s">
         <v>413</v>
-      </c>
-      <c r="H77" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="78" spans="4:8">
       <c r="D78" t="s">
+        <v>414</v>
+      </c>
+      <c r="H78" t="s">
         <v>415</v>
-      </c>
-      <c r="H78" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="79" spans="4:8">
       <c r="D79" t="s">
+        <v>416</v>
+      </c>
+      <c r="H79" t="s">
         <v>417</v>
-      </c>
-      <c r="H79" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="80" spans="4:8">
       <c r="D80" t="s">
+        <v>418</v>
+      </c>
+      <c r="H80" t="s">
         <v>419</v>
-      </c>
-      <c r="H80" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="81" spans="4:8">
       <c r="D81" t="s">
+        <v>420</v>
+      </c>
+      <c r="H81" t="s">
         <v>421</v>
-      </c>
-      <c r="H81" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="82" spans="4:8">
       <c r="D82" t="s">
+        <v>422</v>
+      </c>
+      <c r="H82" t="s">
         <v>423</v>
-      </c>
-      <c r="H82" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="83" spans="4:8">
       <c r="D83" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" t="s">
         <v>425</v>
-      </c>
-      <c r="H83" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="84" spans="4:8">
       <c r="D84" t="s">
+        <v>426</v>
+      </c>
+      <c r="H84" t="s">
         <v>427</v>
-      </c>
-      <c r="H84" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="85" spans="4:8">
       <c r="D85" t="s">
+        <v>428</v>
+      </c>
+      <c r="H85" t="s">
         <v>429</v>
-      </c>
-      <c r="H85" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="86" spans="4:8">
       <c r="D86" t="s">
+        <v>430</v>
+      </c>
+      <c r="H86" t="s">
         <v>431</v>
-      </c>
-      <c r="H86" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="87" spans="4:8">
       <c r="D87" t="s">
+        <v>432</v>
+      </c>
+      <c r="H87" t="s">
         <v>433</v>
-      </c>
-      <c r="H87" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="88" spans="4:8">
       <c r="D88" t="s">
+        <v>434</v>
+      </c>
+      <c r="H88" t="s">
         <v>435</v>
-      </c>
-      <c r="H88" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="89" spans="4:8">
       <c r="D89" t="s">
+        <v>436</v>
+      </c>
+      <c r="H89" t="s">
         <v>437</v>
-      </c>
-      <c r="H89" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="90" spans="4:8">
       <c r="D90" t="s">
+        <v>438</v>
+      </c>
+      <c r="H90" t="s">
         <v>439</v>
-      </c>
-      <c r="H90" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="91" spans="4:8">
       <c r="D91" t="s">
+        <v>440</v>
+      </c>
+      <c r="H91" t="s">
         <v>441</v>
-      </c>
-      <c r="H91" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="92" spans="4:8">
       <c r="D92" t="s">
+        <v>442</v>
+      </c>
+      <c r="H92" t="s">
         <v>443</v>
-      </c>
-      <c r="H92" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="93" spans="4:8">
       <c r="D93" t="s">
+        <v>444</v>
+      </c>
+      <c r="H93" t="s">
         <v>445</v>
-      </c>
-      <c r="H93" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="94" spans="4:8">
       <c r="D94" t="s">
+        <v>446</v>
+      </c>
+      <c r="H94" t="s">
         <v>447</v>
-      </c>
-      <c r="H94" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="95" spans="4:8">
       <c r="D95" t="s">
+        <v>448</v>
+      </c>
+      <c r="H95" t="s">
         <v>449</v>
-      </c>
-      <c r="H95" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="96" spans="4:8">
       <c r="D96" t="s">
+        <v>450</v>
+      </c>
+      <c r="H96" t="s">
         <v>451</v>
-      </c>
-      <c r="H96" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="97" spans="4:8">
       <c r="D97" t="s">
+        <v>452</v>
+      </c>
+      <c r="H97" t="s">
         <v>453</v>
-      </c>
-      <c r="H97" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="98" spans="4:8">
       <c r="D98" t="s">
+        <v>454</v>
+      </c>
+      <c r="H98" t="s">
         <v>455</v>
-      </c>
-      <c r="H98" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="99" spans="4:8">
       <c r="D99" t="s">
+        <v>456</v>
+      </c>
+      <c r="H99" t="s">
         <v>457</v>
-      </c>
-      <c r="H99" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="100" spans="4:8">
       <c r="D100" t="s">
+        <v>458</v>
+      </c>
+      <c r="H100" t="s">
         <v>459</v>
-      </c>
-      <c r="H100" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="101" spans="4:8">
       <c r="D101" t="s">
+        <v>460</v>
+      </c>
+      <c r="H101" t="s">
         <v>461</v>
-      </c>
-      <c r="H101" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="102" spans="4:8">
       <c r="D102" t="s">
+        <v>462</v>
+      </c>
+      <c r="H102" t="s">
         <v>463</v>
-      </c>
-      <c r="H102" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="103" spans="4:8">
       <c r="D103" t="s">
+        <v>464</v>
+      </c>
+      <c r="H103" t="s">
         <v>465</v>
-      </c>
-      <c r="H103" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="104" spans="4:8">
       <c r="D104" t="s">
+        <v>466</v>
+      </c>
+      <c r="H104" t="s">
         <v>467</v>
-      </c>
-      <c r="H104" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="105" spans="4:8">
       <c r="D105" t="s">
+        <v>468</v>
+      </c>
+      <c r="H105" t="s">
         <v>469</v>
-      </c>
-      <c r="H105" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="106" spans="4:8">
       <c r="D106" t="s">
+        <v>470</v>
+      </c>
+      <c r="H106" t="s">
         <v>471</v>
-      </c>
-      <c r="H106" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="107" spans="4:8">
       <c r="D107" t="s">
+        <v>472</v>
+      </c>
+      <c r="H107" t="s">
         <v>473</v>
-      </c>
-      <c r="H107" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="108" spans="4:8">
       <c r="D108" t="s">
+        <v>474</v>
+      </c>
+      <c r="H108" t="s">
         <v>475</v>
-      </c>
-      <c r="H108" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="109" spans="4:8">
       <c r="D109" t="s">
+        <v>476</v>
+      </c>
+      <c r="H109" t="s">
         <v>477</v>
-      </c>
-      <c r="H109" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="110" spans="4:8">
       <c r="D110" t="s">
+        <v>478</v>
+      </c>
+      <c r="H110" t="s">
         <v>479</v>
-      </c>
-      <c r="H110" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="111" spans="4:8">
       <c r="D111" t="s">
+        <v>480</v>
+      </c>
+      <c r="H111" t="s">
         <v>481</v>
-      </c>
-      <c r="H111" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="112" spans="4:8">
       <c r="D112" t="s">
+        <v>482</v>
+      </c>
+      <c r="H112" t="s">
         <v>483</v>
-      </c>
-      <c r="H112" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="113" spans="4:8">
       <c r="D113" t="s">
+        <v>484</v>
+      </c>
+      <c r="H113" t="s">
         <v>485</v>
-      </c>
-      <c r="H113" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="114" spans="4:8">
       <c r="D114" t="s">
+        <v>486</v>
+      </c>
+      <c r="H114" t="s">
         <v>487</v>
-      </c>
-      <c r="H114" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="115" spans="4:8">
@@ -23461,7 +23405,7 @@
         <v>87</v>
       </c>
       <c r="H115" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="4:8">
@@ -23469,468 +23413,468 @@
         <v>76</v>
       </c>
       <c r="H116" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="4:8">
       <c r="D117" t="s">
+        <v>490</v>
+      </c>
+      <c r="H117" t="s">
         <v>491</v>
-      </c>
-      <c r="H117" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="118" spans="4:8">
       <c r="D118" t="s">
+        <v>492</v>
+      </c>
+      <c r="H118" t="s">
         <v>493</v>
-      </c>
-      <c r="H118" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="119" spans="4:8">
       <c r="D119" t="s">
+        <v>494</v>
+      </c>
+      <c r="H119" t="s">
         <v>495</v>
-      </c>
-      <c r="H119" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="120" spans="4:8">
       <c r="D120" t="s">
+        <v>496</v>
+      </c>
+      <c r="H120" t="s">
         <v>497</v>
-      </c>
-      <c r="H120" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="121" spans="4:8">
       <c r="D121" t="s">
+        <v>498</v>
+      </c>
+      <c r="H121" t="s">
         <v>499</v>
-      </c>
-      <c r="H121" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="122" spans="4:8">
       <c r="D122" t="s">
+        <v>500</v>
+      </c>
+      <c r="H122" t="s">
         <v>501</v>
-      </c>
-      <c r="H122" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="123" spans="4:8">
       <c r="D123" t="s">
+        <v>502</v>
+      </c>
+      <c r="H123" t="s">
         <v>503</v>
-      </c>
-      <c r="H123" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="124" spans="4:8">
       <c r="D124" t="s">
+        <v>504</v>
+      </c>
+      <c r="H124" t="s">
         <v>505</v>
-      </c>
-      <c r="H124" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="125" spans="4:8">
       <c r="D125" t="s">
+        <v>506</v>
+      </c>
+      <c r="H125" t="s">
         <v>507</v>
-      </c>
-      <c r="H125" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="126" spans="4:8">
       <c r="D126" t="s">
+        <v>508</v>
+      </c>
+      <c r="H126" t="s">
         <v>509</v>
-      </c>
-      <c r="H126" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="127" spans="4:8">
       <c r="D127" t="s">
+        <v>510</v>
+      </c>
+      <c r="H127" t="s">
         <v>511</v>
-      </c>
-      <c r="H127" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="128" spans="4:8">
       <c r="D128" t="s">
+        <v>512</v>
+      </c>
+      <c r="H128" t="s">
         <v>513</v>
-      </c>
-      <c r="H128" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="129" spans="4:8">
       <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="H129" t="s">
         <v>515</v>
-      </c>
-      <c r="H129" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="130" spans="4:8">
       <c r="D130" t="s">
+        <v>516</v>
+      </c>
+      <c r="H130" t="s">
         <v>517</v>
-      </c>
-      <c r="H130" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="131" spans="4:8">
       <c r="D131" s="36"/>
       <c r="H131" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="4:8">
       <c r="D132" s="36"/>
       <c r="H132" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="4:8">
       <c r="D133" s="36"/>
       <c r="H133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="4:8">
       <c r="D134" s="36"/>
       <c r="H134" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="4:8">
       <c r="D135" s="36"/>
       <c r="H135" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="4:8">
       <c r="D136" s="36"/>
       <c r="H136" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="4:8">
       <c r="D137" s="36"/>
       <c r="H137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="4:8">
       <c r="D138" s="36"/>
       <c r="H138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="4:8">
       <c r="D139" s="36"/>
       <c r="H139" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="4:8">
       <c r="D140" s="36"/>
       <c r="H140" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="4:8">
       <c r="D141" s="36"/>
       <c r="H141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="4:8">
       <c r="D142" s="36"/>
       <c r="H142" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="4:8">
       <c r="D143" s="36"/>
       <c r="H143" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="4:8">
       <c r="D144" s="36"/>
       <c r="H144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="4:8">
       <c r="D145" s="36"/>
       <c r="H145" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" spans="4:8">
       <c r="D146" s="36"/>
       <c r="H146" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="4:8">
       <c r="D147" s="36"/>
       <c r="H147" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="4:8">
       <c r="D148" s="36"/>
       <c r="H148" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="4:8">
       <c r="D149" s="36"/>
       <c r="H149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="4:8">
       <c r="D150" s="36"/>
       <c r="H150" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="4:8">
       <c r="D151" s="36"/>
       <c r="H151" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" spans="4:8">
       <c r="D152" s="36"/>
       <c r="H152" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="4:8">
       <c r="D153" s="36"/>
       <c r="H153" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="4:8">
       <c r="D154" s="36"/>
       <c r="H154" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="4:8">
       <c r="D155" s="36"/>
       <c r="H155" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="4:8">
       <c r="D156" s="36"/>
       <c r="H156" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="4:8">
       <c r="D157" s="36"/>
       <c r="H157" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="4:8">
       <c r="D158" s="36"/>
       <c r="H158" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="4:8">
       <c r="D159" s="36"/>
       <c r="H159" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="4:8">
       <c r="H160" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="8:8">
       <c r="H163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="8:8">
       <c r="H164" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="8:8">
       <c r="H166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="8:8">
       <c r="H167" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="173" spans="8:8">
       <c r="H173" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="8:8">
       <c r="H174" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="175" spans="8:8">
       <c r="H175" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="8:8">
       <c r="H176" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="8:8">
       <c r="H177" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="8:8">
       <c r="H179" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="8:8">
       <c r="H181" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="8:8">
       <c r="H182" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="8:8">
       <c r="H184" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="8:8">
       <c r="H187" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="8:8">
       <c r="H188" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="8:8">
       <c r="H189" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="8:8">
       <c r="H193" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="8:8">
       <c r="H194" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="8:8">
@@ -23940,192 +23884,192 @@
     </row>
     <row r="196" spans="8:8">
       <c r="H196" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="8:8">
       <c r="H197" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="8:8">
       <c r="H198" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="8:8">
       <c r="H199" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="8:8">
       <c r="H200" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="8:8">
       <c r="H201" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="8:8">
       <c r="H204" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="8:8">
       <c r="H205" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="206" spans="8:8">
       <c r="H206" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="8:8">
       <c r="H207" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="8:8">
       <c r="H208" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="8:8">
       <c r="H214" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="215" spans="8:8">
       <c r="H215" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="8:8">
       <c r="H216" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="8:8">
       <c r="H217" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="218" spans="8:8">
       <c r="H218" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="8:8">
       <c r="H219" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="8:8">
       <c r="H220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221" spans="8:8">
       <c r="H221" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="8:8">
       <c r="H225" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="8:8">
       <c r="H226" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="8:8">
       <c r="H228" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="8:8">
       <c r="H229" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="8:8">
       <c r="H230" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="8:8">
       <c r="H231" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="8:8">
       <c r="H232" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -24149,6 +24093,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100922EFD6E97D0794186BFE6FE18B142D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e2991a8b01ad41f40b9ea08d2a0af66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f85943d5-5772-48cc-9b0c-4aad256dcb95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2b3112e092c5b9af4cf4dc2dd54b75f" ns2:_="">
     <xsd:import namespace="f85943d5-5772-48cc-9b0c-4aad256dcb95"/>
@@ -24292,23 +24245,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED8212-61A8-4890-BFCD-BCABE7AECD3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEED8212-61A8-4890-BFCD-BCABE7AECD3F}"/>
 </file>